--- a/data/trans_orig/RUIDO_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>4526</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1144</v>
+        <v>1339</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10367</v>
+        <v>10759</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01586354639025471</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004009020841280819</v>
+        <v>0.004694071805200353</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0363385037659455</v>
+        <v>0.03771475368784396</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5693</v>
+        <v>6630</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006700520280530991</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02419418362469858</v>
+        <v>0.02817382188618348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>6102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2285</v>
+        <v>2660</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12610</v>
+        <v>12450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01172183879619488</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004389009372889312</v>
+        <v>0.005109888107930989</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02422290600093191</v>
+        <v>0.02391579967124012</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>6520</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1886</v>
+        <v>1827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15735</v>
+        <v>15105</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02285498103628991</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.006612242607934474</v>
+        <v>0.006405602983503276</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05515590822219415</v>
+        <v>0.05294735029864191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>3506</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1335</v>
+        <v>1373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7588</v>
+        <v>8443</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01489783227889427</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.005675408650010943</v>
+        <v>0.005834530536082006</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03224659578598856</v>
+        <v>0.03588053432190832</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>10026</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4693</v>
+        <v>4572</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19098</v>
+        <v>19649</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01925833261022066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00901516178171609</v>
+        <v>0.00878326023349139</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03668482624202352</v>
+        <v>0.03774396518327861</v>
       </c>
     </row>
     <row r="6">
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5862</v>
+        <v>5644</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.003918357774756152</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02054951216279428</v>
+        <v>0.01978436088125033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4909</v>
+        <v>5596</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002147251596773185</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.00942942016875927</v>
+        <v>0.01074850304505497</v>
       </c>
     </row>
     <row r="7">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6306</v>
+        <v>6201</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.007651009829482357</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02680040818444142</v>
+        <v>0.02635189149401702</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>6143</v>
+        <v>5869</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.003458272969381387</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01179965682083756</v>
+        <v>0.01127461257867162</v>
       </c>
     </row>
     <row r="8">
@@ -1009,19 +1009,19 @@
         <v>5059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1757</v>
+        <v>1845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11331</v>
+        <v>11310</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01773245026312182</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.00615911154718535</v>
+        <v>0.006466954119197156</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03972013429680141</v>
+        <v>0.03964418618813689</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1030,19 +1030,19 @@
         <v>3312</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>977</v>
+        <v>1225</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7324</v>
+        <v>7771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01407443350534704</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004152831336832174</v>
+        <v>0.005204337708947382</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03112659032527743</v>
+        <v>0.03302487076226039</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -1051,19 +1051,19 @@
         <v>8371</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4452</v>
+        <v>3928</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14888</v>
+        <v>14931</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01607901878716035</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008552007353980984</v>
+        <v>0.007545036802645812</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02859782043409931</v>
+        <v>0.0286804442014199</v>
       </c>
     </row>
     <row r="9">
@@ -1080,19 +1080,19 @@
         <v>4069</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1112</v>
+        <v>1150</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10827</v>
+        <v>9804</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01426214652564482</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003898710590198719</v>
+        <v>0.004029886390186234</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03795148258811466</v>
+        <v>0.03436489323398241</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1101,19 +1101,19 @@
         <v>3581</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1229</v>
+        <v>1143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8948</v>
+        <v>7971</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01521940586795408</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.005224793905054619</v>
+        <v>0.004858133730518608</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03802746470327574</v>
+        <v>0.03387445091254441</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>9</v>
@@ -1122,19 +1122,19 @@
         <v>7650</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3447</v>
+        <v>3240</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14769</v>
+        <v>14060</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01469482981608308</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006620979331915028</v>
+        <v>0.00622407902146776</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02836979754094347</v>
+        <v>0.02700757473798058</v>
       </c>
     </row>
     <row r="10">
@@ -1151,19 +1151,19 @@
         <v>5361</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2001</v>
+        <v>1943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11317</v>
+        <v>11223</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01879212083047579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007012979080810967</v>
+        <v>0.0068092797737233</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03966996405217382</v>
+        <v>0.03934078129556368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1172,19 +1172,19 @@
         <v>9517</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5145</v>
+        <v>5093</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17210</v>
+        <v>16982</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04044339433126837</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02186672556056066</v>
+        <v>0.0216438124086055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07313768354919613</v>
+        <v>0.07216820808047369</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1193,19 +1193,19 @@
         <v>14878</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8674</v>
+        <v>9141</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23310</v>
+        <v>24932</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02857854322036055</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01666097965874489</v>
+        <v>0.01755814100494199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04477527745796366</v>
+        <v>0.04789224315939111</v>
       </c>
     </row>
     <row r="11">
@@ -1222,19 +1222,19 @@
         <v>4896</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2192</v>
+        <v>1571</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10603</v>
+        <v>10165</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01716205771363985</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.007684525613349822</v>
+        <v>0.005507384676227361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03716629289204241</v>
+        <v>0.03563160357801375</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1243,19 +1243,19 @@
         <v>3903</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1624</v>
+        <v>1358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8692</v>
+        <v>8116</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01658686598053551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.006901526210463708</v>
+        <v>0.005769748021749512</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03693680201386872</v>
+        <v>0.03449251479689575</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -1264,19 +1264,19 @@
         <v>8799</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4497</v>
+        <v>4863</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>15286</v>
+        <v>15059</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01690206980784194</v>
+        <v>0.01690206980784193</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.008637706639787829</v>
+        <v>0.009341483821330368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02936235340653012</v>
+        <v>0.0289265264657358</v>
       </c>
     </row>
     <row r="12">
@@ -1293,19 +1293,19 @@
         <v>18295</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10914</v>
+        <v>11451</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>28515</v>
+        <v>28665</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06413094687691116</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03825847926361244</v>
+        <v>0.04013903091525476</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09995379026225672</v>
+        <v>0.1004807201143569</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>28</v>
@@ -1314,19 +1314,19 @@
         <v>19367</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12937</v>
+        <v>12738</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28700</v>
+        <v>28945</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.08230285528778569</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05497758198657014</v>
+        <v>0.05413251175649816</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1219684539997224</v>
+        <v>0.123007427474197</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1335,19 +1335,19 @@
         <v>37662</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27753</v>
+        <v>27637</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>51189</v>
+        <v>49760</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07234468873059968</v>
+        <v>0.0723446887305997</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05331058759490869</v>
+        <v>0.05308761794845652</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09832957845576751</v>
+        <v>0.09558294146942427</v>
       </c>
     </row>
     <row r="13">
@@ -1364,19 +1364,19 @@
         <v>40346</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30124</v>
+        <v>30008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>53583</v>
+        <v>51876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1414252581804616</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.105593379568333</v>
+        <v>0.105186640298818</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1878238703388947</v>
+        <v>0.1818396464368477</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -1385,19 +1385,19 @@
         <v>28637</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21478</v>
+        <v>21572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37294</v>
+        <v>37850</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1217012578350785</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09127617435885937</v>
+        <v>0.0916773135765561</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1584916967254837</v>
+        <v>0.1608524924044692</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1406,19 +1406,19 @@
         <v>68983</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56688</v>
+        <v>55768</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>82994</v>
+        <v>83408</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.132509967419801</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1088912791108543</v>
+        <v>0.1071246330263756</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1594226502635648</v>
+        <v>0.1602178295189929</v>
       </c>
     </row>
     <row r="14">
@@ -1435,19 +1435,19 @@
         <v>195092</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>179219</v>
+        <v>178693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210627</v>
+        <v>209867</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6838581344084441</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6282184968830761</v>
+        <v>0.6263735118345815</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7383120603108099</v>
+        <v>0.7356487438725015</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>234</v>
@@ -1456,19 +1456,19 @@
         <v>160109</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>148386</v>
+        <v>147763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>172407</v>
+        <v>171645</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6804224248031232</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6306032246020247</v>
+        <v>0.6279539306994908</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7326872623890098</v>
+        <v>0.7294500294301244</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>430</v>
@@ -1477,19 +1477,19 @@
         <v>355201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>334388</v>
+        <v>334808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>374415</v>
+        <v>374566</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6823051862455831</v>
+        <v>0.6823051862455832</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6423247996966567</v>
+        <v>0.6431319428568966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7192132255524863</v>
+        <v>0.7195033618231857</v>
       </c>
     </row>
     <row r="15">
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6528</v>
+        <v>6280</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006673969040417226</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02399301331954007</v>
+        <v>0.02307907784640325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1602,19 +1602,19 @@
         <v>2642</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>8471</v>
+        <v>7979</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01306575177877686</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002335663832600459</v>
+        <v>0.002382631625551162</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04189486649899628</v>
+        <v>0.03946435846154597</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -1623,19 +1623,19 @@
         <v>4458</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1469</v>
+        <v>1440</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>11109</v>
+        <v>9917</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.009398820180440574</v>
+        <v>0.009398820180440573</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003097308483274258</v>
+        <v>0.003036429891137521</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02342256211520373</v>
+        <v>0.02090949282423791</v>
       </c>
     </row>
     <row r="17">
@@ -1652,19 +1652,19 @@
         <v>4525</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1737</v>
+        <v>1714</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10352</v>
+        <v>9590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01663076732609697</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006385095004412199</v>
+        <v>0.006299810901876149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03804435783334671</v>
+        <v>0.0352440233334819</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1679,13 +1679,13 @@
         <v>5209</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.00720314168511778</v>
+        <v>0.007203141685117778</v>
       </c>
       <c r="O17" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02576084449378668</v>
+        <v>0.02576456873640849</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7</v>
@@ -1694,19 +1694,19 @@
         <v>5982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2800</v>
+        <v>2417</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>12289</v>
+        <v>11894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01261172013267997</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005903337320895783</v>
+        <v>0.005095616941628883</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02590949011577152</v>
+        <v>0.0250770748641414</v>
       </c>
     </row>
     <row r="18">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4478</v>
+        <v>4123</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.004002264334072541</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02214603837314431</v>
+        <v>0.02039107239252308</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4100</v>
+        <v>3872</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001706186674325404</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.008644552476992721</v>
+        <v>0.008162888231678499</v>
       </c>
     </row>
     <row r="20">
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10354</v>
+        <v>10418</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01161426626374575</v>
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03805113502578618</v>
+        <v>0.03828703191171045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1854,19 +1854,19 @@
         <v>3135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1192</v>
+        <v>1159</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>7274</v>
+        <v>7266</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01550603409247295</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005895210507008499</v>
+        <v>0.005730087609729129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03597588807214191</v>
+        <v>0.03593680064419654</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1875,19 +1875,19 @@
         <v>6295</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2496</v>
+        <v>2708</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14521</v>
+        <v>15191</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01327334768733228</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005262129596832471</v>
+        <v>0.005710330316810592</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03061595768548297</v>
+        <v>0.03202984012131983</v>
       </c>
     </row>
     <row r="21">
@@ -1907,16 +1907,16 @@
         <v>815</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7924</v>
+        <v>7980</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01026998730756142</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002994805080158562</v>
+        <v>0.002994026621889872</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02912079765723512</v>
+        <v>0.02932887597112781</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>4</v>
@@ -1925,19 +1925,19 @@
         <v>3162</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8528</v>
+        <v>8661</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01563707321705522</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.003623389399464278</v>
+        <v>0.003593895920521982</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04217729209185976</v>
+        <v>0.0428336180016216</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -1946,19 +1946,19 @@
         <v>5956</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2673</v>
+        <v>2651</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>12290</v>
+        <v>12341</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01255800471330331</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.005635500385602603</v>
+        <v>0.005590380328688148</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0259118642203295</v>
+        <v>0.02601913586938922</v>
       </c>
     </row>
     <row r="22">
@@ -1975,19 +1975,19 @@
         <v>4820</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1309</v>
+        <v>1746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9957</v>
+        <v>11000</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01771389819069122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.004809385224664346</v>
+        <v>0.006415910198381573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03659353868442868</v>
+        <v>0.04042563968782316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -1996,19 +1996,19 @@
         <v>3635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1296</v>
+        <v>1360</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>8319</v>
+        <v>7845</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01797565863087877</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006407791326588277</v>
+        <v>0.006728307767970699</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04114553853561287</v>
+        <v>0.03880082965863364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>10</v>
@@ -2017,19 +2017,19 @@
         <v>8454</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4027</v>
+        <v>4325</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15025</v>
+        <v>15357</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01782548806523084</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.008491590419179093</v>
+        <v>0.009118068081410904</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03167974337228003</v>
+        <v>0.03237969997192032</v>
       </c>
     </row>
     <row r="23">
@@ -2046,19 +2046,19 @@
         <v>8137</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3165</v>
+        <v>3123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>18990</v>
+        <v>19983</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0299036241758313</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01163059055184207</v>
+        <v>0.01147849523483599</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06979004675333304</v>
+        <v>0.07343978659028078</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -2067,19 +2067,19 @@
         <v>1445</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3803</v>
+        <v>3908</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.007148391468203416</v>
+        <v>0.007148391468203414</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0</v>
+        <v>0.002267994571919479</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01880827113430985</v>
+        <v>0.01932797009252279</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -2088,19 +2088,19 @@
         <v>9582</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4490</v>
+        <v>4028</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21225</v>
+        <v>21113</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02020294686513956</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009467165133832847</v>
+        <v>0.008493165427178508</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04474996957718489</v>
+        <v>0.04451563089172541</v>
       </c>
     </row>
     <row r="24">
@@ -2117,19 +2117,19 @@
         <v>13596</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7148</v>
+        <v>6859</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24612</v>
+        <v>24492</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04996912245960161</v>
+        <v>0.0499691224596016</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02626811588383214</v>
+        <v>0.02520756835205082</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09045452059896396</v>
+        <v>0.09001185447693399</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>15</v>
@@ -2138,19 +2138,19 @@
         <v>9942</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>5312</v>
+        <v>5934</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>15532</v>
+        <v>16502</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.04916976908781173</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02627200998398175</v>
+        <v>0.02934740785842801</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07681945716435187</v>
+        <v>0.08161666099131627</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>27</v>
@@ -2159,19 +2159,19 @@
         <v>23538</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15676</v>
+        <v>15410</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>35796</v>
+        <v>34815</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0496283538453414</v>
+        <v>0.04962835384534139</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.03305228280087536</v>
+        <v>0.03249014146176766</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07547368793693293</v>
+        <v>0.07340530767710758</v>
       </c>
     </row>
     <row r="25">
@@ -2188,19 +2188,19 @@
         <v>43121</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31292</v>
+        <v>32542</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>56044</v>
+        <v>56555</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1584752211515276</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1150038586678496</v>
+        <v>0.1195984468559942</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2059682259654448</v>
+        <v>0.2078473153430078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>24</v>
@@ -2209,19 +2209,19 @@
         <v>14246</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>9423</v>
+        <v>9221</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>21494</v>
+        <v>21074</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07045893308284479</v>
+        <v>0.07045893308284477</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0466026875003417</v>
+        <v>0.0456045700691468</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1063035437487297</v>
+        <v>0.1042254711777245</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2230,19 +2230,19 @@
         <v>57367</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>44974</v>
+        <v>44237</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>72779</v>
+        <v>72816</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1209534071753968</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09482425081091603</v>
+        <v>0.09326937898128768</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1534478086444894</v>
+        <v>0.1535255506285327</v>
       </c>
     </row>
     <row r="26">
@@ -2259,19 +2259,19 @@
         <v>190128</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>173698</v>
+        <v>173425</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>204019</v>
+        <v>205197</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6987491440845268</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6383665600086956</v>
+        <v>0.63736283919221</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7498001343863899</v>
+        <v>0.7541272162360543</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>227</v>
@@ -2280,19 +2280,19 @@
         <v>161721</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>150293</v>
+        <v>150508</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169891</v>
+        <v>170546</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.799832982622766</v>
+        <v>0.7998329826227659</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7433170084884988</v>
+        <v>0.7443777751616462</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8402410388574769</v>
+        <v>0.843482817428877</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>418</v>
@@ -2301,19 +2301,19 @@
         <v>351849</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>333578</v>
+        <v>331750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>369699</v>
+        <v>368132</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7418417246608099</v>
+        <v>0.7418417246608097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7033189231444926</v>
+        <v>0.6994646548293844</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7794767921796573</v>
+        <v>0.7761724433428844</v>
       </c>
     </row>
     <row r="27">
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5001</v>
+        <v>5172</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.003993636428269851</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01990543049410588</v>
+        <v>0.0205884179689168</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3504</v>
+        <v>3874</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.007469871624708352</v>
@@ -2438,7 +2438,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0377406536044568</v>
+        <v>0.04172755146965054</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5746</v>
+        <v>5669</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.004931724745758425</v>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01670137974628531</v>
+        <v>0.01647563119108619</v>
       </c>
     </row>
     <row r="29">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3655</v>
+        <v>4110</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003171348610480461</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01454803909639104</v>
+        <v>0.01635958375097704</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4426</v>
+        <v>4042</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00231553624047071</v>
@@ -2522,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01286370075591323</v>
+        <v>0.01174936613971091</v>
       </c>
     </row>
     <row r="30">
@@ -2636,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>5252</v>
+        <v>4436</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003527656649506292</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02090557131412325</v>
+        <v>0.01765743598915172</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>5667</v>
+        <v>4165</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009122459723520696</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.06103951689522981</v>
+        <v>0.04486093776201604</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5996</v>
+        <v>5962</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005037456506477772</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0174263406864167</v>
+        <v>0.0173273353508058</v>
       </c>
     </row>
     <row r="33">
@@ -2704,19 +2704,19 @@
         <v>3291</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>899</v>
+        <v>920</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10050</v>
+        <v>8772</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01310226035838474</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003578868359547182</v>
+        <v>0.003662099399992895</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04000637019914993</v>
+        <v>0.03491671302992374</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2738,19 +2738,19 @@
         <v>3291</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>8740</v>
+        <v>9003</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.009566516462952425</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.002584603442009199</v>
+        <v>0.002635474448231972</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.02540172727568598</v>
+        <v>0.02616615112677749</v>
       </c>
     </row>
     <row r="34">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13631</v>
+        <v>14910</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01346273189101347</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.05426111933762746</v>
+        <v>0.05935238865436104</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -2791,7 +2791,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>4518</v>
+        <v>3861</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.008314455072197111</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04865577682200422</v>
+        <v>0.04158576372161784</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -2809,19 +2809,19 @@
         <v>4154</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>692</v>
+        <v>764</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>13611</v>
+        <v>17009</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01207343051581398</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.002010135673454707</v>
+        <v>0.002221196020506598</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03956039480784032</v>
+        <v>0.04943528408695255</v>
       </c>
     </row>
     <row r="35">
@@ -2841,16 +2841,16 @@
         <v>0</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7362</v>
+        <v>6685</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.007770470848515757</v>
+        <v>0.007770470848515756</v>
       </c>
       <c r="H35" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.0293073699516826</v>
+        <v>0.02661059086096433</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>3259</v>
+        <v>2687</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005649387037565481</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0351023783593077</v>
+        <v>0.02894172999154862</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>3</v>
@@ -2880,19 +2880,19 @@
         <v>2477</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>7580</v>
+        <v>6894</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.00719808036541347</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.001520273103766317</v>
+        <v>0.001546303861589974</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0220316976228366</v>
+        <v>0.02003747417484639</v>
       </c>
     </row>
     <row r="36">
@@ -2909,19 +2909,19 @@
         <v>14198</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>7542</v>
+        <v>7486</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>24470</v>
+        <v>24691</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.05651813977866282</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.03002343531939882</v>
+        <v>0.02979750109154433</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09740868504695914</v>
+        <v>0.09828580241579891</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>5</v>
@@ -2930,19 +2930,19 @@
         <v>3294</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>1287</v>
+        <v>1246</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>7382</v>
+        <v>7242</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.0354806521727852</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01386637942879726</v>
+        <v>0.01342309560606438</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.07950402916708695</v>
+        <v>0.07799875267545658</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>17</v>
@@ -2951,19 +2951,19 @@
         <v>17492</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10586</v>
+        <v>10318</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>29221</v>
+        <v>28408</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.05084101489004667</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03076843052630407</v>
+        <v>0.0299897656161714</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.0849302785298974</v>
+        <v>0.08256842963424696</v>
       </c>
     </row>
     <row r="37">
@@ -2980,19 +2980,19 @@
         <v>27571</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19273</v>
+        <v>19886</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>37950</v>
+        <v>37464</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.1097525116720591</v>
+        <v>0.109752511672059</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07671858132905207</v>
+        <v>0.07915907684768654</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1510678959268625</v>
+        <v>0.1491324501794705</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>18</v>
@@ -3001,19 +3001,19 @@
         <v>10282</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>6449</v>
+        <v>6527</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>16326</v>
+        <v>16254</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1107446104013839</v>
+        <v>0.1107446104013838</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.06945986650648026</v>
+        <v>0.07030029019772595</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1758333993710334</v>
+        <v>0.1750670626175549</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>53</v>
@@ -3022,19 +3022,19 @@
         <v>37854</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>28868</v>
+        <v>29123</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>50326</v>
+        <v>49134</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.1100202370056982</v>
+        <v>0.1100202370056983</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.08390391504441641</v>
+        <v>0.08464503127382834</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1462724072239679</v>
+        <v>0.1428073589423493</v>
       </c>
     </row>
     <row r="38">
@@ -3051,19 +3051,19 @@
         <v>198132</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>183452</v>
+        <v>183436</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>210565</v>
+        <v>210992</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.7887012437631076</v>
+        <v>0.7887012437631075</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.7302643671018664</v>
+        <v>0.7302026381044672</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.8381921162856617</v>
+        <v>0.8398913942649636</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>123</v>
@@ -3072,19 +3072,19 @@
         <v>76433</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>69519</v>
+        <v>69648</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>81582</v>
+        <v>81551</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8232185639678393</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7487459618696791</v>
+        <v>0.7501375658341315</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.878673888983362</v>
+        <v>0.8783427561901431</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>332</v>
@@ -3093,19 +3093,19 @@
         <v>274565</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>258732</v>
+        <v>259469</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>289676</v>
+        <v>287081</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.7980160032673681</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.7519959160808873</v>
+        <v>0.7541397961018249</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.841933240549941</v>
+        <v>0.8343922397200596</v>
       </c>
     </row>
     <row r="39">
@@ -3197,19 +3197,19 @@
         <v>4230</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12288</v>
+        <v>12818</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.007434299246837275</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001506927046090002</v>
+        <v>0.001505004222843271</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02159574914652932</v>
+        <v>0.0225284028977012</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>3546</v>
+        <v>3625</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.001649307962497924</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.00829501825077403</v>
+        <v>0.008479887818549695</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3239,19 +3239,19 @@
         <v>4935</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1553</v>
+        <v>1437</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>13468</v>
+        <v>13547</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.004952504448841423</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001558011461461315</v>
+        <v>0.001441748455304928</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01351588972343535</v>
+        <v>0.01359480176285933</v>
       </c>
     </row>
     <row r="41">
@@ -3268,19 +3268,19 @@
         <v>3670</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>811</v>
+        <v>801</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>11821</v>
+        <v>9326</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.006450493911990783</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.001424909253460484</v>
+        <v>0.001407597006896562</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.0207753267519722</v>
+        <v>0.01639001945768329</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>4</v>
@@ -3289,19 +3289,19 @@
         <v>3293</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>754</v>
+        <v>767</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>8306</v>
+        <v>8034</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.007703694871709051</v>
+        <v>0.00770369487170905</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.001764904906578605</v>
+        <v>0.001794154596789875</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01942973546877737</v>
+        <v>0.01879378936895816</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>7</v>
@@ -3310,19 +3310,19 @@
         <v>6964</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2895</v>
+        <v>2991</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>14665</v>
+        <v>14788</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.006988124388823454</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.002905024673734513</v>
+        <v>0.003001276894929455</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.01471681257618905</v>
+        <v>0.01484025283260941</v>
       </c>
     </row>
     <row r="42">
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5356</v>
+        <v>6579</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.002088855860300993</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.009412364038628402</v>
+        <v>0.01156298191033015</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2</v>
@@ -3363,16 +3363,16 @@
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7374</v>
+        <v>6759</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.0044195066201067</v>
+        <v>0.004419506620106699</v>
       </c>
       <c r="O42" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.01724982544381853</v>
+        <v>0.01580956833749485</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3</v>
@@ -3381,19 +3381,19 @@
         <v>3078</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>9884</v>
+        <v>9132</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.0030887185476121</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0006906273759128137</v>
+        <v>0.0006849015346629145</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009918537994935788</v>
+        <v>0.009164105412878444</v>
       </c>
     </row>
     <row r="43">
@@ -3457,19 +3457,19 @@
         <v>4468</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1062</v>
+        <v>1179</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11015</v>
+        <v>11596</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.007852010000395735</v>
+        <v>0.007852010000395733</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.001866888760815858</v>
+        <v>0.002071948225094282</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01935964871267364</v>
+        <v>0.02038089856334036</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>5</v>
@@ -3478,19 +3478,19 @@
         <v>3305</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>8106</v>
+        <v>7084</v>
       </c>
       <c r="N44" s="6" t="n">
-        <v>0.00773081905459254</v>
+        <v>0.007730819054592538</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.002492084302218947</v>
+        <v>0.002425448783413859</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01896066174517211</v>
+        <v>0.01657169692369273</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>9</v>
@@ -3499,19 +3499,19 @@
         <v>7773</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>3570</v>
+        <v>3773</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>15476</v>
+        <v>15037</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.007800018382072507</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.003582882977724991</v>
+        <v>0.003786677143885905</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01553051168705631</v>
+        <v>0.01508971202288554</v>
       </c>
     </row>
     <row r="45">
@@ -3528,19 +3528,19 @@
         <v>3018</v>
       </c>
       <c r="E45" s="5" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>8740</v>
+        <v>8648</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.005304376609188851</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.001608847397050388</v>
+        <v>0.001605710405835056</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.01536093804771691</v>
+        <v>0.01519976351635242</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -3552,16 +3552,16 @@
         <v>689</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>6330</v>
+        <v>6031</v>
       </c>
       <c r="N45" s="6" t="n">
-        <v>0.005317374805721354</v>
+        <v>0.005317374805721353</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.001610907507406745</v>
+        <v>0.001611669392727205</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01480741083129155</v>
+        <v>0.01410834126608941</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>6</v>
@@ -3570,19 +3570,19 @@
         <v>5291</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>2284</v>
+        <v>2069</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>11995</v>
+        <v>10526</v>
       </c>
       <c r="U45" s="6" t="n">
-        <v>0.00530995291085503</v>
+        <v>0.005309952910855029</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.002291828880506986</v>
+        <v>0.00207635465108364</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01203690843483523</v>
+        <v>0.01056336197873112</v>
       </c>
     </row>
     <row r="46">
@@ -3599,19 +3599,19 @@
         <v>5469</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2395</v>
+        <v>1930</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>12313</v>
+        <v>11117</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.009612175582359106</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.004208423526214503</v>
+        <v>0.003392450807288212</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.02164066581009839</v>
+        <v>0.01953876567310349</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>12</v>
@@ -3620,19 +3620,19 @@
         <v>10282</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>5435</v>
+        <v>5486</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>18741</v>
+        <v>19499</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.02405056065627648</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.01271307959146692</v>
+        <v>0.01283372691146616</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.04383898591728422</v>
+        <v>0.04561128987872346</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>18</v>
@@ -3641,19 +3641,19 @@
         <v>15751</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>9357</v>
+        <v>9531</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>25074</v>
+        <v>26481</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01580632648193151</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.009390279397283523</v>
+        <v>0.009564534731958629</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.02516273563218898</v>
+        <v>0.02657454268735327</v>
       </c>
     </row>
     <row r="47">
@@ -3670,19 +3670,19 @@
         <v>15342</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>8609</v>
+        <v>7977</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>28964</v>
+        <v>28090</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.02696334796096794</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.01512975419932962</v>
+        <v>0.01401892631530872</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.05090369382691224</v>
+        <v>0.04936876030694737</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>11</v>
@@ -3691,19 +3691,19 @@
         <v>7547</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>3999</v>
+        <v>3932</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>13494</v>
+        <v>13107</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.01765379563145239</v>
+        <v>0.01765379563145238</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.009354597926702251</v>
+        <v>0.009197285274331701</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.03156448538355396</v>
+        <v>0.03065868217991844</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>24</v>
@@ -3712,19 +3712,19 @@
         <v>22889</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>15117</v>
+        <v>14902</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>36107</v>
+        <v>36066</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.02296949604184609</v>
+        <v>0.0229694960418461</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.01517031550799744</v>
+        <v>0.01495428503459578</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.03623445243433839</v>
+        <v>0.03619363668383901</v>
       </c>
     </row>
     <row r="48">
@@ -3741,19 +3741,19 @@
         <v>31833</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>19086</v>
+        <v>19098</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>52643</v>
+        <v>49920</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.05594656569867717</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03354363308551615</v>
+        <v>0.03356562304100901</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.09252054015248165</v>
+        <v>0.08773443087128256</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>36</v>
@@ -3762,19 +3762,19 @@
         <v>24906</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>17614</v>
+        <v>18082</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>34733</v>
+        <v>34741</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.05826027946383382</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.04120139807556326</v>
+        <v>0.04229735000692605</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.08124666165599029</v>
+        <v>0.08126537717423174</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>57</v>
@@ -3783,19 +3783,19 @@
         <v>56739</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>41613</v>
+        <v>42641</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>77789</v>
+        <v>78324</v>
       </c>
       <c r="U48" s="6" t="n">
-        <v>0.05693916231709593</v>
+        <v>0.05693916231709592</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.04176005535934147</v>
+        <v>0.04279184811805818</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.07806306142457718</v>
+        <v>0.07860042671164991</v>
       </c>
     </row>
     <row r="49">
@@ -3812,19 +3812,19 @@
         <v>50141</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>38862</v>
+        <v>38172</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>64837</v>
+        <v>64064</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.08812298665533803</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06829998452241927</v>
+        <v>0.06708818643931445</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1139516665367084</v>
+        <v>0.1125929764561254</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>78</v>
@@ -3833,19 +3833,19 @@
         <v>46984</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>37001</v>
+        <v>36461</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>59506</v>
+        <v>57310</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1099043055410372</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.08655284203006129</v>
+        <v>0.08528868196163905</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1391961467166912</v>
+        <v>0.1340580986553759</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>137</v>
@@ -3854,19 +3854,19 @@
         <v>97125</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>81546</v>
+        <v>81462</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>114974</v>
+        <v>116279</v>
       </c>
       <c r="U49" s="6" t="n">
-        <v>0.09746729872895429</v>
+        <v>0.09746729872895431</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.08183400889682127</v>
+        <v>0.08174983236843944</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1153795000155265</v>
+        <v>0.1166894758723099</v>
       </c>
     </row>
     <row r="50">
@@ -3883,19 +3883,19 @@
         <v>449628</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>423680</v>
+        <v>426933</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>469433</v>
+        <v>471624</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.7902248884739441</v>
+        <v>0.7902248884739442</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.7446210606073629</v>
+        <v>0.7503379375393502</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.8250324424028432</v>
+        <v>0.8288844870380452</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>479</v>
@@ -3904,19 +3904,19 @@
         <v>326314</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>310201</v>
+        <v>311255</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>340706</v>
+        <v>342286</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.7633103553927726</v>
+        <v>0.7633103553927725</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.7256206174935457</v>
+        <v>0.7280855986048969</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.7969763489692859</v>
+        <v>0.8006737230308919</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>941</v>
@@ -3925,19 +3925,19 @@
         <v>775941</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>745582</v>
+        <v>748114</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>801420</v>
+        <v>799974</v>
       </c>
       <c r="U50" s="6" t="n">
-        <v>0.7786783977519678</v>
+        <v>0.7786783977519677</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.7482120474557181</v>
+        <v>0.7507530752550836</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.8042465769447853</v>
+        <v>0.8027962887736784</v>
       </c>
     </row>
     <row r="51">
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4285</v>
+        <v>4490</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.003451625420606544</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.01069240653013846</v>
+        <v>0.01120399215271261</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>4307</v>
+        <v>4169</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.002054387097822306</v>
@@ -4075,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.006395989065967548</v>
+        <v>0.006190869347403779</v>
       </c>
     </row>
     <row r="53">
@@ -4108,16 +4108,16 @@
         <v>0</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>3885</v>
+        <v>3614</v>
       </c>
       <c r="N53" s="6" t="n">
-        <v>0.001758850024842348</v>
+        <v>0.001758850024842349</v>
       </c>
       <c r="O53" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.009693259285409846</v>
+        <v>0.009016790824234157</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>1</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>3550</v>
+        <v>3504</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.001046857163720158</v>
@@ -4138,7 +4138,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.005271321393182833</v>
+        <v>0.005203769746101957</v>
       </c>
     </row>
     <row r="54">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>4030</v>
+        <v>3565</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.001764734322621494</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.01005578992464606</v>
+        <v>0.008894370468305969</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>4048</v>
+        <v>3554</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.00105035946306152</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.006011883229997857</v>
+        <v>0.005277605028792417</v>
       </c>
     </row>
     <row r="55">
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>5982</v>
+        <v>6275</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.006620972328296061</v>
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02194582777261837</v>
+        <v>0.02302019917324868</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>5</v>
@@ -4286,19 +4286,19 @@
         <v>3605</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>1346</v>
+        <v>1356</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>8641</v>
+        <v>8609</v>
       </c>
       <c r="N56" s="6" t="n">
-        <v>0.008995721353690866</v>
+        <v>0.008995721353690868</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.003358818462503982</v>
+        <v>0.003382778595127755</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.02155855869997922</v>
+        <v>0.02147937687591699</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>7</v>
@@ -4307,19 +4307,19 @@
         <v>5410</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>10490</v>
+        <v>10972</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.00803440894549419</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.003344849248522439</v>
+        <v>0.003350176622100043</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.01557864160286942</v>
+        <v>0.01629424027730911</v>
       </c>
     </row>
     <row r="57">
@@ -4339,7 +4339,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>8824</v>
+        <v>8589</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.005951332929223403</v>
@@ -4348,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.03237028268912206</v>
+        <v>0.03150738569500634</v>
       </c>
       <c r="J57" s="5" t="n">
         <v>2</v>
@@ -4360,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="5" t="n">
-        <v>4403</v>
+        <v>5057</v>
       </c>
       <c r="N57" s="6" t="n">
         <v>0.003551257976075356</v>
@@ -4369,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="P57" s="6" t="n">
-        <v>0.01098666042231856</v>
+        <v>0.01261746470947406</v>
       </c>
       <c r="Q57" s="5" t="n">
         <v>3</v>
@@ -4378,19 +4378,19 @@
         <v>3046</v>
       </c>
       <c r="S57" s="5" t="n">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="T57" s="5" t="n">
-        <v>10056</v>
+        <v>10873</v>
       </c>
       <c r="U57" s="6" t="n">
         <v>0.004522822469160975</v>
       </c>
       <c r="V57" s="6" t="n">
-        <v>0.0009988479390154112</v>
+        <v>0.001000417130937123</v>
       </c>
       <c r="W57" s="6" t="n">
-        <v>0.01493288311560632</v>
+        <v>0.01614619626897066</v>
       </c>
     </row>
     <row r="58">
@@ -4407,19 +4407,19 @@
         <v>7255</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>2788</v>
+        <v>3142</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>15396</v>
+        <v>15744</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.02661329139641589</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.01022773316697574</v>
+        <v>0.01152809552781314</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.05648014655223924</v>
+        <v>0.05775885443012101</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>8</v>
@@ -4428,19 +4428,19 @@
         <v>5368</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>2329</v>
+        <v>2496</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>10100</v>
+        <v>10127</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.01339328613104401</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.005810144630457978</v>
+        <v>0.00622661293587443</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.02519880980361003</v>
+        <v>0.02526767210393351</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>14</v>
@@ -4449,19 +4449,19 @@
         <v>12622</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>7419</v>
+        <v>7460</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>21647</v>
+        <v>20602</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.01874482221427897</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.01101747806967953</v>
+        <v>0.01107763243997546</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.0321466659116019</v>
+        <v>0.030594978209936</v>
       </c>
     </row>
     <row r="59">
@@ -4478,19 +4478,19 @@
         <v>3088</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>8830</v>
+        <v>8106</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.01132726312382221</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.003246749352343316</v>
+        <v>0.003232524439736732</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.03239337044162108</v>
+        <v>0.02973643055094122</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>6</v>
@@ -4499,19 +4499,19 @@
         <v>3720</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>7759</v>
+        <v>7446</v>
       </c>
       <c r="N59" s="6" t="n">
-        <v>0.009282088999248258</v>
+        <v>0.00928208899924826</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.003463429573783467</v>
+        <v>0.003450278998662887</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01935817685043333</v>
+        <v>0.01857747427576475</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>9</v>
@@ -4520,19 +4520,19 @@
         <v>6808</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>3188</v>
+        <v>3221</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>13216</v>
+        <v>13145</v>
       </c>
       <c r="U59" s="6" t="n">
-        <v>0.01010998754425297</v>
+        <v>0.01010998754425296</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.004733795441535543</v>
+        <v>0.004783372867528676</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01962583166255837</v>
+        <v>0.0195213909358266</v>
       </c>
     </row>
     <row r="60">
@@ -4549,19 +4549,19 @@
         <v>11727</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>5294</v>
+        <v>5536</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>22547</v>
+        <v>22919</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.04301940987133612</v>
+        <v>0.04301940987133613</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.01942109207644723</v>
+        <v>0.02030712526740046</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.0827137019381506</v>
+        <v>0.08407941594014585</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>24</v>
@@ -4570,19 +4570,19 @@
         <v>15479</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>10252</v>
+        <v>10067</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>23097</v>
+        <v>23670</v>
       </c>
       <c r="N60" s="6" t="n">
-        <v>0.03862078889713191</v>
+        <v>0.03862078889713192</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.02557991096874208</v>
+        <v>0.02511860425198383</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.05762794988612638</v>
+        <v>0.05905724784687385</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>32</v>
@@ -4591,19 +4591,19 @@
         <v>27206</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>19147</v>
+        <v>17963</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>41372</v>
+        <v>39060</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.04040137660397544</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.0284345631642595</v>
+        <v>0.02667600348920476</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.06143939153907386</v>
+        <v>0.05800532199667798</v>
       </c>
     </row>
     <row r="61">
@@ -4620,19 +4620,19 @@
         <v>21563</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>14473</v>
+        <v>14104</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>32215</v>
+        <v>31786</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>0.07910366676393284</v>
+        <v>0.07910366676393282</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.05309369901709654</v>
+        <v>0.05174096369777435</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.1181819273498495</v>
+        <v>0.1166055442368439</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>52</v>
@@ -4641,19 +4641,19 @@
         <v>30989</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>23031</v>
+        <v>23711</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>39738</v>
+        <v>40265</v>
       </c>
       <c r="N61" s="6" t="n">
-        <v>0.07731840394023785</v>
+        <v>0.07731840394023787</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.05746463723451804</v>
+        <v>0.05915937742054123</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.09914772303233371</v>
+        <v>0.1004619201288186</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>76</v>
@@ -4662,19 +4662,19 @@
         <v>52552</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>41945</v>
+        <v>41767</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>66248</v>
+        <v>65198</v>
       </c>
       <c r="U61" s="6" t="n">
-        <v>0.07804108885807874</v>
+        <v>0.07804108885807876</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.06228942974275379</v>
+        <v>0.06202587062571783</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.09838105154090802</v>
+        <v>0.0968210694772233</v>
       </c>
     </row>
     <row r="62">
@@ -4691,19 +4691,19 @@
         <v>225531</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>211705</v>
+        <v>211204</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>236862</v>
+        <v>238318</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.8273640635869735</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.7766441026094089</v>
+        <v>0.7748048815041965</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.8689308758962806</v>
+        <v>0.8742712620818683</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>542</v>
@@ -4712,19 +4712,19 @@
         <v>337414</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>324586</v>
+        <v>326156</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>348213</v>
+        <v>349246</v>
       </c>
       <c r="N62" s="6" t="n">
-        <v>0.8418632429345013</v>
+        <v>0.8418632429345014</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.8098566956673661</v>
+        <v>0.8137758771040424</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.8688070654594786</v>
+        <v>0.8713857760884814</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>770</v>
@@ -4733,19 +4733,19 @@
         <v>562945</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>542432</v>
+        <v>545398</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>578552</v>
+        <v>579711</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.8359938896401546</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.8055315867546314</v>
+        <v>0.809935538156888</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.8591717138403451</v>
+        <v>0.8608921382277014</v>
       </c>
     </row>
     <row r="63">
@@ -4853,7 +4853,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>3163</v>
+        <v>3101</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.001349208049597287</v>
@@ -4862,7 +4862,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.00693685254259671</v>
+        <v>0.006802405490921253</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>1</v>
@@ -4874,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>3091</v>
+        <v>3665</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.001081263111649844</v>
@@ -4883,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.005433734320364932</v>
+        <v>0.006441820357654103</v>
       </c>
     </row>
     <row r="65">
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>4268</v>
+        <v>4772</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.003029049879247386</v>
@@ -4925,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.009362674538664299</v>
+        <v>0.01046717242547808</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>2</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>4772</v>
+        <v>4836</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.00242749804135485</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.008387571056284626</v>
+        <v>0.008500880879309395</v>
       </c>
     </row>
     <row r="66">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>9643</v>
+        <v>7992</v>
       </c>
       <c r="G66" s="6" t="n">
         <v>0.01454127463554067</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="6" t="n">
-        <v>0.08535639047080469</v>
+        <v>0.07073673469942794</v>
       </c>
       <c r="J66" s="5" t="n">
         <v>0</v>
@@ -5000,7 +5000,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="5" t="n">
-        <v>8171</v>
+        <v>7522</v>
       </c>
       <c r="U66" s="6" t="n">
         <v>0.00288781328503016</v>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="6" t="n">
-        <v>0.01436262566592015</v>
+        <v>0.01322309290123542</v>
       </c>
     </row>
     <row r="67">
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>1920</v>
+        <v>1992</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.0008788955611456259</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.004212273908134659</v>
+        <v>0.004368878113205826</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>1</v>
@@ -5110,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.0007043519711753918</v>
@@ -5119,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.003553092282886203</v>
+        <v>0.003518612711062138</v>
       </c>
     </row>
     <row r="69">
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>21250</v>
+        <v>24351</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.03901681445576038</v>
@@ -5148,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.1880893737372375</v>
+        <v>0.2155424831982269</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>0</v>
@@ -5173,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>21709</v>
+        <v>28720</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.007748514346157403</v>
@@ -5182,7 +5182,7 @@
         <v>0</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.03816159201505834</v>
+        <v>0.05048544857267747</v>
       </c>
     </row>
     <row r="70">
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>24085</v>
+        <v>25178</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.07075751897380389</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.2131834557497342</v>
+        <v>0.2228616272024824</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>11</v>
@@ -5220,19 +5220,19 @@
         <v>13828</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>6554</v>
+        <v>6210</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>28767</v>
+        <v>27343</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.03033086523774436</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.01437678836553396</v>
+        <v>0.0136207494322936</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.06309956981557996</v>
+        <v>0.05997576381466341</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>13</v>
@@ -5241,19 +5241,19 @@
         <v>21822</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>10555</v>
+        <v>10445</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>42440</v>
+        <v>41395</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.03835936553461439</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.01855397035324971</v>
+        <v>0.01836017559768881</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.0746030706060884</v>
+        <v>0.07276633360028359</v>
       </c>
     </row>
     <row r="71">
@@ -5283,19 +5283,19 @@
         <v>1741</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>5037</v>
+        <v>5213</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.003819703205331872</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.000766401138952961</v>
+        <v>0.0007670129586261393</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.01104730752479201</v>
+        <v>0.01143463868545428</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>3</v>
@@ -5304,19 +5304,19 @@
         <v>1741</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>5215</v>
+        <v>5266</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.003061132176471064</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.0006149685874898926</v>
+        <v>0.0006260715582927386</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.009167392928711288</v>
+        <v>0.009256493884765175</v>
       </c>
     </row>
     <row r="72">
@@ -5333,19 +5333,19 @@
         <v>6758</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>20060</v>
+        <v>19472</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.05982084471270007</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.01558696205668884</v>
+        <v>0.01552074820859286</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.1775607406707336</v>
+        <v>0.1723493943225429</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>19</v>
@@ -5354,19 +5354,19 @@
         <v>9781</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>5876</v>
+        <v>5838</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>15199</v>
+        <v>15336</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.02145311008558198</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.01288888361931999</v>
+        <v>0.01280589782653415</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.03333761265579855</v>
+        <v>0.03363883833002714</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>22</v>
@@ -5375,19 +5375,19 @@
         <v>16539</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>9553</v>
+        <v>9652</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>28520</v>
+        <v>28237</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.02907272092092769</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.01679195514356921</v>
+        <v>0.0169672061035585</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.05013398625691082</v>
+        <v>0.04963601416351204</v>
       </c>
     </row>
     <row r="73">
@@ -5404,19 +5404,19 @@
         <v>12969</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>6056</v>
+        <v>5808</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>24561</v>
+        <v>25525</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.1147942139319906</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.05360550109696724</v>
+        <v>0.05141146040930641</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.2173942568815675</v>
+        <v>0.2259343428058979</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>80</v>
@@ -5425,19 +5425,19 @@
         <v>57374</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>43331</v>
+        <v>44979</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>73039</v>
+        <v>74268</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.1258457308936149</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.09504456807149397</v>
+        <v>0.09865955804783549</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.1602068787543638</v>
+        <v>0.1629023184184859</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>89</v>
@@ -5446,19 +5446,19 @@
         <v>70343</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>54317</v>
+        <v>54726</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>89479</v>
+        <v>88969</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.1236509633576583</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.09548021189367407</v>
+        <v>0.09619865400673196</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.1572886473797363</v>
+        <v>0.1563933247439031</v>
       </c>
     </row>
     <row r="74">
@@ -5475,19 +5475,19 @@
         <v>79205</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>61278</v>
+        <v>61135</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>93723</v>
+        <v>93605</v>
       </c>
       <c r="G74" s="6" t="n">
-        <v>0.7010693332902044</v>
+        <v>0.7010693332902045</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.5423918781778769</v>
+        <v>0.5411235218292296</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.8295764062979546</v>
+        <v>0.8285351754764528</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>512</v>
@@ -5496,19 +5496,19 @@
         <v>370785</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>352745</v>
+        <v>353551</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>387601</v>
+        <v>387152</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.8132934370877365</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.7737232861803583</v>
+        <v>0.7754907879686944</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.850178258593013</v>
+        <v>0.8491923810848829</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>548</v>
@@ -5517,19 +5517,19 @@
         <v>449989</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>423218</v>
+        <v>424961</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>471611</v>
+        <v>472661</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.7910063772549609</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.7439475652912971</v>
+        <v>0.7470104802564379</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.8290136702232447</v>
+        <v>0.8308600629589979</v>
       </c>
     </row>
     <row r="75">
@@ -5621,19 +5621,19 @@
         <v>11575</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>5455</v>
+        <v>6072</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>21792</v>
+        <v>21888</v>
       </c>
       <c r="G76" s="6" t="n">
-        <v>0.00656487351233045</v>
+        <v>0.006564873512330449</v>
       </c>
       <c r="H76" s="6" t="n">
-        <v>0.003094054684959296</v>
+        <v>0.003443802716425447</v>
       </c>
       <c r="I76" s="6" t="n">
-        <v>0.01235949002199253</v>
+        <v>0.01241391751466863</v>
       </c>
       <c r="J76" s="5" t="n">
         <v>10</v>
@@ -5642,19 +5642,19 @@
         <v>7616</v>
       </c>
       <c r="L76" s="5" t="n">
-        <v>3770</v>
+        <v>3655</v>
       </c>
       <c r="M76" s="5" t="n">
-        <v>14567</v>
+        <v>14346</v>
       </c>
       <c r="N76" s="6" t="n">
         <v>0.00419698470987572</v>
       </c>
       <c r="O76" s="6" t="n">
-        <v>0.002077479462829717</v>
+        <v>0.002014246610732315</v>
       </c>
       <c r="P76" s="6" t="n">
-        <v>0.008028028604524121</v>
+        <v>0.007905875194333238</v>
       </c>
       <c r="Q76" s="5" t="n">
         <v>20</v>
@@ -5663,19 +5663,19 @@
         <v>19190</v>
       </c>
       <c r="S76" s="5" t="n">
-        <v>11246</v>
+        <v>11918</v>
       </c>
       <c r="T76" s="5" t="n">
-        <v>29719</v>
+        <v>30063</v>
       </c>
       <c r="U76" s="6" t="n">
-        <v>0.005363920152734944</v>
+        <v>0.005363920152734945</v>
       </c>
       <c r="V76" s="6" t="n">
-        <v>0.003143323846526778</v>
+        <v>0.003331060550165333</v>
       </c>
       <c r="W76" s="6" t="n">
-        <v>0.008306771873020362</v>
+        <v>0.008402910982123644</v>
       </c>
     </row>
     <row r="77">
@@ -5692,19 +5692,19 @@
         <v>15512</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>9041</v>
+        <v>8656</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>26989</v>
+        <v>26501</v>
       </c>
       <c r="G77" s="6" t="n">
         <v>0.008798048215701865</v>
       </c>
       <c r="H77" s="6" t="n">
-        <v>0.005127908640998297</v>
+        <v>0.004909537603820007</v>
       </c>
       <c r="I77" s="6" t="n">
-        <v>0.01530728213757053</v>
+        <v>0.01503070271668087</v>
       </c>
       <c r="J77" s="5" t="n">
         <v>14</v>
@@ -5713,19 +5713,19 @@
         <v>10341</v>
       </c>
       <c r="L77" s="5" t="n">
-        <v>5675</v>
+        <v>5661</v>
       </c>
       <c r="M77" s="5" t="n">
-        <v>16604</v>
+        <v>16731</v>
       </c>
       <c r="N77" s="6" t="n">
         <v>0.005699064092063555</v>
       </c>
       <c r="O77" s="6" t="n">
-        <v>0.003127666763929867</v>
+        <v>0.003120034830262374</v>
       </c>
       <c r="P77" s="6" t="n">
-        <v>0.009150340208371167</v>
+        <v>0.009220251569571734</v>
       </c>
       <c r="Q77" s="5" t="n">
         <v>28</v>
@@ -5734,19 +5734,19 @@
         <v>25853</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>17570</v>
+        <v>17448</v>
       </c>
       <c r="T77" s="5" t="n">
-        <v>38397</v>
+        <v>38615</v>
       </c>
       <c r="U77" s="6" t="n">
-        <v>0.007226295610276164</v>
+        <v>0.007226295610276166</v>
       </c>
       <c r="V77" s="6" t="n">
-        <v>0.004910925455213285</v>
+        <v>0.004876943985409357</v>
       </c>
       <c r="W77" s="6" t="n">
-        <v>0.0107323575943523</v>
+        <v>0.01079321170908811</v>
       </c>
     </row>
     <row r="78">
@@ -5763,19 +5763,19 @@
         <v>3949</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>10390</v>
+        <v>12578</v>
       </c>
       <c r="G78" s="6" t="n">
         <v>0.002239856747128414</v>
       </c>
       <c r="H78" s="6" t="n">
-        <v>0.0006316182875375959</v>
+        <v>0.0006349979306995243</v>
       </c>
       <c r="I78" s="6" t="n">
-        <v>0.005892649928414402</v>
+        <v>0.007133738942542053</v>
       </c>
       <c r="J78" s="5" t="n">
         <v>3</v>
@@ -5784,19 +5784,19 @@
         <v>2597</v>
       </c>
       <c r="L78" s="5" t="n">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="M78" s="5" t="n">
-        <v>7578</v>
+        <v>8328</v>
       </c>
       <c r="N78" s="6" t="n">
         <v>0.001431005694146635</v>
       </c>
       <c r="O78" s="6" t="n">
-        <v>0.0003806934993064331</v>
+        <v>0.0003817637964474807</v>
       </c>
       <c r="P78" s="6" t="n">
-        <v>0.004176243795256856</v>
+        <v>0.004589365901938035</v>
       </c>
       <c r="Q78" s="5" t="n">
         <v>6</v>
@@ -5805,19 +5805,19 @@
         <v>6546</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>2577</v>
+        <v>2397</v>
       </c>
       <c r="T78" s="5" t="n">
-        <v>15912</v>
+        <v>14441</v>
       </c>
       <c r="U78" s="6" t="n">
         <v>0.001829621102412407</v>
       </c>
       <c r="V78" s="6" t="n">
-        <v>0.0007203165350922026</v>
+        <v>0.0006698588255647716</v>
       </c>
       <c r="W78" s="6" t="n">
-        <v>0.004447472732577814</v>
+        <v>0.004036343360024686</v>
       </c>
     </row>
     <row r="79">
@@ -5847,19 +5847,19 @@
         <v>2610</v>
       </c>
       <c r="L79" s="5" t="n">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="M79" s="5" t="n">
-        <v>8129</v>
+        <v>7305</v>
       </c>
       <c r="N79" s="6" t="n">
         <v>0.001438140488164381</v>
       </c>
       <c r="O79" s="6" t="n">
-        <v>0.0003948138166319447</v>
+        <v>0.0003910893837215117</v>
       </c>
       <c r="P79" s="6" t="n">
-        <v>0.00448012237806605</v>
+        <v>0.004025759837826152</v>
       </c>
       <c r="Q79" s="5" t="n">
         <v>3</v>
@@ -5868,19 +5868,19 @@
         <v>2610</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="T79" s="5" t="n">
-        <v>7633</v>
+        <v>7666</v>
       </c>
       <c r="U79" s="6" t="n">
-        <v>0.0007294006581055884</v>
+        <v>0.0007294006581055885</v>
       </c>
       <c r="V79" s="6" t="n">
-        <v>0.0002005231002330357</v>
+        <v>0.0001981724227051567</v>
       </c>
       <c r="W79" s="6" t="n">
-        <v>0.002133604481632044</v>
+        <v>0.002142744377318927</v>
       </c>
     </row>
     <row r="80">
@@ -5897,19 +5897,19 @@
         <v>15378</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>8525</v>
+        <v>8629</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>25272</v>
+        <v>27142</v>
       </c>
       <c r="G80" s="6" t="n">
         <v>0.008721716316272901</v>
       </c>
       <c r="H80" s="6" t="n">
-        <v>0.004835356987778369</v>
+        <v>0.00489390661206352</v>
       </c>
       <c r="I80" s="6" t="n">
-        <v>0.01433350729128191</v>
+        <v>0.01539407396222684</v>
       </c>
       <c r="J80" s="5" t="n">
         <v>22</v>
@@ -5918,19 +5918,19 @@
         <v>14605</v>
       </c>
       <c r="L80" s="5" t="n">
-        <v>9161</v>
+        <v>9623</v>
       </c>
       <c r="M80" s="5" t="n">
-        <v>21740</v>
+        <v>22049</v>
       </c>
       <c r="N80" s="6" t="n">
-        <v>0.008048881063668098</v>
+        <v>0.008048881063668096</v>
       </c>
       <c r="O80" s="6" t="n">
-        <v>0.005048455654795446</v>
+        <v>0.005303510462437756</v>
       </c>
       <c r="P80" s="6" t="n">
-        <v>0.01198080796673406</v>
+        <v>0.01215126502368684</v>
       </c>
       <c r="Q80" s="5" t="n">
         <v>36</v>
@@ -5939,19 +5939,19 @@
         <v>29983</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>20491</v>
+        <v>20487</v>
       </c>
       <c r="T80" s="5" t="n">
-        <v>41153</v>
+        <v>42599</v>
       </c>
       <c r="U80" s="6" t="n">
-        <v>0.008380465596968704</v>
+        <v>0.008380465596968706</v>
       </c>
       <c r="V80" s="6" t="n">
-        <v>0.005727545327495458</v>
+        <v>0.005726205550758924</v>
       </c>
       <c r="W80" s="6" t="n">
-        <v>0.01150271312039729</v>
+        <v>0.01190681521606158</v>
       </c>
     </row>
     <row r="81">
@@ -5968,19 +5968,19 @@
         <v>19203</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>10678</v>
+        <v>11294</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>39871</v>
+        <v>37495</v>
       </c>
       <c r="G81" s="6" t="n">
         <v>0.01089133662903454</v>
       </c>
       <c r="H81" s="6" t="n">
-        <v>0.006056384620483469</v>
+        <v>0.006405574335942661</v>
       </c>
       <c r="I81" s="6" t="n">
-        <v>0.02261335840291078</v>
+        <v>0.02126588114844407</v>
       </c>
       <c r="J81" s="5" t="n">
         <v>14</v>
@@ -5989,19 +5989,19 @@
         <v>10439</v>
       </c>
       <c r="L81" s="5" t="n">
-        <v>5914</v>
+        <v>5634</v>
       </c>
       <c r="M81" s="5" t="n">
-        <v>17397</v>
+        <v>16898</v>
       </c>
       <c r="N81" s="6" t="n">
-        <v>0.005753196722600381</v>
+        <v>0.00575319672260038</v>
       </c>
       <c r="O81" s="6" t="n">
-        <v>0.003258985127552703</v>
+        <v>0.003104985893396701</v>
       </c>
       <c r="P81" s="6" t="n">
-        <v>0.009587291175941801</v>
+        <v>0.009312551178456696</v>
       </c>
       <c r="Q81" s="5" t="n">
         <v>29</v>
@@ -6010,19 +6010,19 @@
         <v>29642</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>20017</v>
+        <v>19564</v>
       </c>
       <c r="T81" s="5" t="n">
-        <v>46418</v>
+        <v>48693</v>
       </c>
       <c r="U81" s="6" t="n">
         <v>0.008285358520473499</v>
       </c>
       <c r="V81" s="6" t="n">
-        <v>0.005595032160062772</v>
+        <v>0.005468441643316658</v>
       </c>
       <c r="W81" s="6" t="n">
-        <v>0.01297442555065152</v>
+        <v>0.01361014224606072</v>
       </c>
     </row>
     <row r="82">
@@ -6039,19 +6039,19 @@
         <v>34281</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>21759</v>
+        <v>22815</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>54532</v>
+        <v>56548</v>
       </c>
       <c r="G82" s="6" t="n">
         <v>0.01944288224195484</v>
       </c>
       <c r="H82" s="6" t="n">
-        <v>0.01234127550464571</v>
+        <v>0.01293965666736397</v>
       </c>
       <c r="I82" s="6" t="n">
-        <v>0.03092855324092028</v>
+        <v>0.03207216319872221</v>
       </c>
       <c r="J82" s="5" t="n">
         <v>49</v>
@@ -6060,19 +6060,19 @@
         <v>43401</v>
       </c>
       <c r="L82" s="5" t="n">
-        <v>31151</v>
+        <v>31050</v>
       </c>
       <c r="M82" s="5" t="n">
-        <v>59001</v>
+        <v>60484</v>
       </c>
       <c r="N82" s="6" t="n">
         <v>0.0239182204934705</v>
       </c>
       <c r="O82" s="6" t="n">
-        <v>0.01716737510623436</v>
+        <v>0.01711146997171003</v>
       </c>
       <c r="P82" s="6" t="n">
-        <v>0.03251578733544225</v>
+        <v>0.03333271342628314</v>
       </c>
       <c r="Q82" s="5" t="n">
         <v>76</v>
@@ -6081,19 +6081,19 @@
         <v>77681</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>59087</v>
+        <v>59401</v>
       </c>
       <c r="T82" s="5" t="n">
-        <v>102417</v>
+        <v>101380</v>
       </c>
       <c r="U82" s="6" t="n">
-        <v>0.02171269850313747</v>
+        <v>0.02171269850313748</v>
       </c>
       <c r="V82" s="6" t="n">
-        <v>0.01651542116371524</v>
+        <v>0.01660310480511116</v>
       </c>
       <c r="W82" s="6" t="n">
-        <v>0.02862651019810435</v>
+        <v>0.02833672463705698</v>
       </c>
     </row>
     <row r="83">
@@ -6110,19 +6110,19 @@
         <v>33414</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>22412</v>
+        <v>22738</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>50042</v>
+        <v>49340</v>
       </c>
       <c r="G83" s="6" t="n">
         <v>0.01895150373770144</v>
       </c>
       <c r="H83" s="6" t="n">
-        <v>0.0127115082248889</v>
+        <v>0.01289650750772203</v>
       </c>
       <c r="I83" s="6" t="n">
-        <v>0.02838248499411191</v>
+        <v>0.02798391121336271</v>
       </c>
       <c r="J83" s="5" t="n">
         <v>30</v>
@@ -6131,19 +6131,19 @@
         <v>18881</v>
       </c>
       <c r="L83" s="5" t="n">
-        <v>12871</v>
+        <v>13137</v>
       </c>
       <c r="M83" s="5" t="n">
-        <v>27182</v>
+        <v>27470</v>
       </c>
       <c r="N83" s="6" t="n">
         <v>0.01040563287858089</v>
       </c>
       <c r="O83" s="6" t="n">
-        <v>0.007093428183656143</v>
+        <v>0.007239618156924025</v>
       </c>
       <c r="P83" s="6" t="n">
-        <v>0.01498009021148701</v>
+        <v>0.01513899119659507</v>
       </c>
       <c r="Q83" s="5" t="n">
         <v>60</v>
@@ -6152,19 +6152,19 @@
         <v>52296</v>
       </c>
       <c r="S83" s="5" t="n">
-        <v>39299</v>
+        <v>36938</v>
       </c>
       <c r="T83" s="5" t="n">
-        <v>68825</v>
+        <v>67646</v>
       </c>
       <c r="U83" s="6" t="n">
         <v>0.01461718182685387</v>
       </c>
       <c r="V83" s="6" t="n">
-        <v>0.01098452691900725</v>
+        <v>0.01032458711403926</v>
       </c>
       <c r="W83" s="6" t="n">
-        <v>0.01923724558113155</v>
+        <v>0.01890777340933839</v>
       </c>
     </row>
     <row r="84">
@@ -6181,19 +6181,19 @@
         <v>96408</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>75272</v>
+        <v>75587</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>122066</v>
+        <v>122088</v>
       </c>
       <c r="G84" s="6" t="n">
         <v>0.05467945034323297</v>
       </c>
       <c r="H84" s="6" t="n">
-        <v>0.04269178557649117</v>
+        <v>0.04287046630833956</v>
       </c>
       <c r="I84" s="6" t="n">
-        <v>0.06923204722154856</v>
+        <v>0.06924413010303905</v>
       </c>
       <c r="J84" s="5" t="n">
         <v>127</v>
@@ -6202,19 +6202,19 @@
         <v>82768</v>
       </c>
       <c r="L84" s="5" t="n">
-        <v>69672</v>
+        <v>68965</v>
       </c>
       <c r="M84" s="5" t="n">
-        <v>99359</v>
+        <v>100205</v>
       </c>
       <c r="N84" s="6" t="n">
-        <v>0.0456137831016095</v>
+        <v>0.04561378310160949</v>
       </c>
       <c r="O84" s="6" t="n">
-        <v>0.03839627284274168</v>
+        <v>0.03800683574009835</v>
       </c>
       <c r="P84" s="6" t="n">
-        <v>0.05475697889256263</v>
+        <v>0.05522333513620195</v>
       </c>
       <c r="Q84" s="5" t="n">
         <v>202</v>
@@ -6223,19 +6223,19 @@
         <v>179176</v>
       </c>
       <c r="S84" s="5" t="n">
-        <v>153013</v>
+        <v>151941</v>
       </c>
       <c r="T84" s="5" t="n">
-        <v>208276</v>
+        <v>210898</v>
       </c>
       <c r="U84" s="6" t="n">
-        <v>0.05008149645303513</v>
+        <v>0.05008149645303514</v>
       </c>
       <c r="V84" s="6" t="n">
-        <v>0.04276867914463919</v>
+        <v>0.04246893602933976</v>
       </c>
       <c r="W84" s="6" t="n">
-        <v>0.0582151777305412</v>
+        <v>0.0589479376131588</v>
       </c>
     </row>
     <row r="85">
@@ -6252,19 +6252,19 @@
         <v>195711</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>169428</v>
+        <v>171160</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>221325</v>
+        <v>223244</v>
       </c>
       <c r="G85" s="6" t="n">
         <v>0.1110009257927965</v>
       </c>
       <c r="H85" s="6" t="n">
-        <v>0.09609423536340997</v>
+        <v>0.09707615802732651</v>
       </c>
       <c r="I85" s="6" t="n">
-        <v>0.1255282622316477</v>
+        <v>0.1266165750081225</v>
       </c>
       <c r="J85" s="5" t="n">
         <v>301</v>
@@ -6273,19 +6273,19 @@
         <v>188512</v>
       </c>
       <c r="L85" s="5" t="n">
-        <v>166781</v>
+        <v>169092</v>
       </c>
       <c r="M85" s="5" t="n">
-        <v>211799</v>
+        <v>212279</v>
       </c>
       <c r="N85" s="6" t="n">
         <v>0.103889534034897</v>
       </c>
       <c r="O85" s="6" t="n">
-        <v>0.09191353819930861</v>
+        <v>0.09318690341350837</v>
       </c>
       <c r="P85" s="6" t="n">
-        <v>0.1167230851195876</v>
+        <v>0.1169872434627287</v>
       </c>
       <c r="Q85" s="5" t="n">
         <v>522</v>
@@ -6294,19 +6294,19 @@
         <v>384223</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>351786</v>
+        <v>352387</v>
       </c>
       <c r="T85" s="5" t="n">
-        <v>420562</v>
+        <v>423486</v>
       </c>
       <c r="U85" s="6" t="n">
         <v>0.1073941475462017</v>
       </c>
       <c r="V85" s="6" t="n">
-        <v>0.0983276920655375</v>
+        <v>0.09849578923146354</v>
       </c>
       <c r="W85" s="6" t="n">
-        <v>0.1175513501725529</v>
+        <v>0.1183686477020471</v>
       </c>
     </row>
     <row r="86">
@@ -6323,19 +6323,19 @@
         <v>1337716</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1295141</v>
+        <v>1295925</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>1374174</v>
+        <v>1375898</v>
       </c>
       <c r="G86" s="6" t="n">
         <v>0.758709406463846</v>
       </c>
       <c r="H86" s="6" t="n">
-        <v>0.7345619968229342</v>
+        <v>0.7350070402861414</v>
       </c>
       <c r="I86" s="6" t="n">
-        <v>0.7793870771178182</v>
+        <v>0.7803648474470433</v>
       </c>
       <c r="J86" s="5" t="n">
         <v>2117</v>
@@ -6344,19 +6344,19 @@
         <v>1432775</v>
       </c>
       <c r="L86" s="5" t="n">
-        <v>1401261</v>
+        <v>1401068</v>
       </c>
       <c r="M86" s="5" t="n">
-        <v>1465663</v>
+        <v>1464287</v>
       </c>
       <c r="N86" s="6" t="n">
         <v>0.7896055567209234</v>
       </c>
       <c r="O86" s="6" t="n">
-        <v>0.7722384487170877</v>
+        <v>0.7721319856984695</v>
       </c>
       <c r="P86" s="6" t="n">
-        <v>0.8077303257797288</v>
+        <v>0.8069718903124969</v>
       </c>
       <c r="Q86" s="5" t="n">
         <v>3439</v>
@@ -6365,19 +6365,19 @@
         <v>2770490</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>2715683</v>
+        <v>2718914</v>
       </c>
       <c r="T86" s="5" t="n">
-        <v>2817386</v>
+        <v>2821743</v>
       </c>
       <c r="U86" s="6" t="n">
-        <v>0.7743794140298007</v>
+        <v>0.7743794140298006</v>
       </c>
       <c r="V86" s="6" t="n">
-        <v>0.7590602333120817</v>
+        <v>0.7599632439599131</v>
       </c>
       <c r="W86" s="6" t="n">
-        <v>0.7874871208366251</v>
+        <v>0.7887050059812323</v>
       </c>
     </row>
     <row r="87">
